--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_영어_단어_기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_영어_단어_기출.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1708,14 +1708,1786 @@
           <t>발굴하다</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>intricacy</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>복잡</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>stir</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>inanimately</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>생기없게</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>활기 없이</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>endorse</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>견디다</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>지지하다</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>burst into</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>exhume</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>멸종하다</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sumptuous</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>사치스러운</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>keep clear of</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>멀리하다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>가까이 하지 않다, 떨어져 있다</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>stir</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>시작하다</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>17시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>burst into</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>착수하다</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>17시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>stir</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>devastate</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>파괴하다</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>압도하다</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ambitious</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>모호한</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>열망하는</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vivacity</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>생기, 활기</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>brighten</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>밝히다</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>빛나다</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pompous</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>frivolous</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>경박한</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>사소한, 천박한</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>extinction</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>멸종</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>servile</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>노예의, 비열한</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>on behalf of</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>~와 함께</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~대신에</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>lossen</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>느슨하게하다</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>완화하다, 완화되다</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>devastate</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>압도하다</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>17시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ambitious</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>열정적인</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>열망하는</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>17시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>pompous</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>거만함</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vivacity</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>생기, 활기</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>convenient</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>편안한</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>편리한</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>17시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>pleasant</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>기쁜</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>즐거운</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>17시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>promote</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>가속화하다, 촉진하다</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>17시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>운동하다</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>연습하다, 연습시키다</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>redeeming</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>재기하다</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>보충의, 보충하는</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>discipline</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>좌절</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>처벌하다, 벌하다</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>put up with</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>착수하다</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>참다, 견디다</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>stir</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>17시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>discipline</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>처벌하다, 벌하다</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>put up with</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>참다, 견디다</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>17시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>redeeming</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>보충의, 보충하는</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>let off</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>놓아주다</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>발사하다</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>pariah</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>추방자</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>anguished</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>고통스러운</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>고민하는, 괴로워하는</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>renounce</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>버리다</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>officious</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>주제넘게 나서는</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>friendly</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>친절한, 다정한</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>put up with</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>참다, 견디다</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>17시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>renounce</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>버리다</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>17시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>영향을 미치다</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>inconsiderately</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>fix</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>수리하다</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>muzzle</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>입을 막다</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>supportive</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>지지하는</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>지탱하는, 부양하는</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>burst into</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>시작하다</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>~을 확신하다</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>put up with</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>요구하다</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>참다, 견디다</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>17시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>supportive</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>지지하는</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>지탱하는, 부양하는</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>inconsiderately</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>경솔하게</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>muzzle</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>friendly</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>친근하게</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>친절한, 다정한</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>defend</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>막다</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>지키다, 보호하다, 방어하다</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>immaculate</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>위생적인, 깨끗한</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>dejection</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>거절</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>우울, 불경기</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>addictive</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>중독적인</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>중독성의</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>censor</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>취소하다</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>지우다</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>serve out</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>수행하다</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>18시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>memorable</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>기념할만한</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>make a face</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>얼굴을 찡그리다</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>stick out</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>고수하다</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>눈에 띄다, 인상적이다</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>officious</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>주제넘게 나서는</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>vex</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>화나게 하다</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>get inspired</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>영감을 받은</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>영감을 받다</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>friendly</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>친근한</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>친절한, 다정한</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>18시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>stick out</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>인상적인</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>눈에 띄다, 인상적이다</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>immaculate</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>위생적인, 깨끗한</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>dejection</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>우울, 불경기</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>volunteer</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>봉사자</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>자발적인</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>20230111</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>05시 35분</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_영어_단어_기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_영어_단어_기출.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3480,14 +3480,1780 @@
           <t>자발적인</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>20230111</t>
-        </is>
+      <c r="D130" t="n">
+        <v>20230111</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>fertile</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>번영하다</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>비옥한</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>stick out</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>고수하다</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>눈에 띄다, 인상적이다</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>friendly</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>친근한</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>친절한, 다정한</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>disappearance</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>실망</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sniff</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>킁킁거리다</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>냄새 맡다</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>보통의, 평범한</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>dejection</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>거절</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>우울, 불경기</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>곤경</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>disparate</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>식별하다</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>다른</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>prodigal</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>resign</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>거주하다</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>사직하다, 퇴직하다</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>aloof</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>냉담한</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>stick one's nose in</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>간섭하다, 참견하다</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>간정하다</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>affirmative</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>긍정적인, 단정적인</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>put on</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>delirious</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>allusive</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>유혹하는</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>carry out</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>수행하다</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>전례 없는, 유례없는, 비길 데 없는</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>entice</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>유혹하다, 유인하다, 부추기다</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>provocative</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>도발적인, 자극적인</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>associative</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>결합의, 연합의</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>pass over</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>건내다</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>제외시키다, 제외하다</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>put up with</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>고안하다</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>참다, 견디다</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>resurgence</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>fultile</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>헛된</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>rebellious</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>hurry</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>서두르다, 재촉하다</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>sporadic</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>산발적인</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>prodigal</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>perjury</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>위증</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>aloof</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>냉담한</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>do without</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>전례 없는, 유례없는, 비길 데 없는</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>provocative</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>자극하는</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>도발적인, 자극적인</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>put on</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>associative</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>관련된</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>결합의, 연합의</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>allusive</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>유혹하는</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>fultile</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>헛된</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>11시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>rebellious</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>11시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>힘든</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>11시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>delirious</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>11시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>11시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>stick one's nose in</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>간섭하다, 참견하다</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>11시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>perjury</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>거짓말</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>11시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>sporadic</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>이따금씩</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>11시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>dejection</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>거부</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>우울, 불경기</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>12시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>외로운</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>12시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>allusive</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>암시하는</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>12시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>fultile</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>헛된</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>12시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>associative</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>연합된</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>결합의, 연합의</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>12시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>부인하는</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>12시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>선례없는</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>전례 없는, 유례없는, 비길 데 없는</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>12시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>외로운</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>12시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>provocative</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>자극하는</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>도발적인, 자극적인</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>12시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>전례 없는, 유례없는, 비길 데 없는</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>12시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>12시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>12시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>stick one's nose in</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>고집하다</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>간섭하다, 참견하다</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>12시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>delirious</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>12시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>be contingent upon</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>12시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>allusive</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>유혹하는</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>12시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>provocative</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>도발적인, 자극적인</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>12시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>전례 없는, 유례없는, 비길 데 없는</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>12시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>12시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>associative</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>연합한</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>결합의, 연합의</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>12시 17분</t>
         </is>
       </c>
     </row>
